--- a/TEMPLATE_FILES/Расход.xlsx
+++ b/TEMPLATE_FILES/Расход.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\TEMPLATE_FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\backend\my-nest\TEMPLATE_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD5CA3-1022-4FD7-82DD-529E6FC6BDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F683982F-06EF-4E46-A2D6-75697CFC48FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="586">
   <si>
     <t>СВЕДЕНИЯ</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Кадровая и организационно-мобилизационная работа</t>
-  </si>
-  <si>
-    <t>Штабисты с историей</t>
   </si>
   <si>
     <t>Возд.разведка</t>
@@ -2319,6 +2316,93 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2345,93 +2429,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2726,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z60"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="21"/>
@@ -3955,167 +3952,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:26" ht="33" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74" t="s">
+        <v>570</v>
+      </c>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="63" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="52" t="s">
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="52"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="53" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="57" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="57" t="s">
+      <c r="K4" s="59"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="57" t="s">
+      <c r="O4" s="60"/>
+      <c r="P4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="54"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="58"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="57"/>
       <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
@@ -4125,14 +4122,14 @@
       <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="58"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="58"/>
+      <c r="P5" s="57"/>
       <c r="Q5" s="8" t="s">
         <v>23</v>
       </c>
@@ -4154,36 +4151,36 @@
       <c r="W5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="33" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="76"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46"/>
     </row>
     <row r="7" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A7" s="10" t="s">
@@ -4202,10 +4199,10 @@
         <v>32</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" ref="H7:H40" si="0">E7/B7</f>
+        <f t="shared" ref="H7:H39" si="0">E7/B7</f>
         <v>0</v>
       </c>
       <c r="I7" s="14">
@@ -4213,48 +4210,48 @@
         <v>0</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M7" s="12">
         <f>SUM(N7,O7)</f>
         <v>0</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O7" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P7" s="14">
         <f>SUM(Q7:W7)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R7" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S7" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T7" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U7" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V7" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W7" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X7" s="1">
         <v>16</v>
@@ -4276,17 +4273,17 @@
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="12">
-        <f t="shared" ref="E8:E39" si="1">SUM(I8,M8)</f>
+        <f t="shared" ref="E8:E38" si="1">SUM(I8,M8)</f>
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="H8" s="13">
-        <f t="shared" ref="H8:H39" si="2">E8/B8</f>
+        <f t="shared" ref="H8:H38" si="2">E8/B8</f>
         <v>0</v>
       </c>
       <c r="I8" s="14">
@@ -4294,48 +4291,48 @@
         <v>0</v>
       </c>
       <c r="J8" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="L8" s="42" t="s">
         <v>155</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>156</v>
       </c>
       <c r="M8" s="12">
         <f>SUM(N8,O8)</f>
         <v>0</v>
       </c>
       <c r="N8" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="42" t="s">
         <v>157</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="P8" s="14">
         <f>SUM(Q8:W8)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="R8" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="R8" s="42" t="s">
+      <c r="S8" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="T8" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="U8" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="U8" s="42" t="s">
+      <c r="V8" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="V8" s="42" t="s">
+      <c r="W8" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="W8" s="42" t="s">
-        <v>165</v>
       </c>
       <c r="X8" s="1">
         <v>41</v>
@@ -4361,62 +4358,62 @@
         <v>0</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" ref="I9:I39" si="3">SUM(J9:L9)</f>
+        <f t="shared" ref="I9:I38" si="3">SUM(J9:L9)</f>
         <v>0</v>
       </c>
       <c r="J9" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="L9" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="M9" s="12">
+        <f t="shared" ref="M9:M38" si="4">SUM(N9,O9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="12">
-        <f t="shared" ref="M9:M39" si="4">SUM(N9,O9)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="42" t="s">
+      <c r="O9" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="O9" s="42" t="s">
+      <c r="P9" s="14">
+        <f t="shared" ref="P9:P38" si="5">SUM(Q9:W9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="14">
-        <f t="shared" ref="P9:P39" si="5">SUM(Q9:W9)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="42" t="s">
+      <c r="R9" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="42" t="s">
+      <c r="S9" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="S9" s="42" t="s">
+      <c r="T9" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="T9" s="42" t="s">
+      <c r="U9" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="U9" s="42" t="s">
+      <c r="V9" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="V9" s="42" t="s">
+      <c r="W9" s="42" t="s">
         <v>178</v>
-      </c>
-      <c r="W9" s="42" t="s">
-        <v>179</v>
       </c>
       <c r="X9" s="1">
         <v>13</v>
@@ -4442,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="2"/>
@@ -4456,48 +4453,48 @@
         <v>0</v>
       </c>
       <c r="J10" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="L10" s="42" t="s">
         <v>183</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>184</v>
       </c>
       <c r="M10" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" s="42" t="s">
         <v>185</v>
-      </c>
-      <c r="O10" s="42" t="s">
-        <v>186</v>
       </c>
       <c r="P10" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q10" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="R10" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="R10" s="42" t="s">
+      <c r="S10" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="T10" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="T10" s="42" t="s">
+      <c r="U10" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="U10" s="42" t="s">
+      <c r="V10" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="V10" s="42" t="s">
+      <c r="W10" s="42" t="s">
         <v>192</v>
-      </c>
-      <c r="W10" s="42" t="s">
-        <v>193</v>
       </c>
       <c r="X10" s="1">
         <v>22</v>
@@ -4523,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="2"/>
@@ -4537,48 +4534,48 @@
         <v>0</v>
       </c>
       <c r="J11" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="L11" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>198</v>
       </c>
       <c r="M11" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O11" s="42" t="s">
         <v>199</v>
-      </c>
-      <c r="O11" s="42" t="s">
-        <v>200</v>
       </c>
       <c r="P11" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q11" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="R11" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="R11" s="42" t="s">
+      <c r="S11" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="T11" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="U11" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="U11" s="42" t="s">
+      <c r="V11" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="V11" s="42" t="s">
+      <c r="W11" s="42" t="s">
         <v>206</v>
-      </c>
-      <c r="W11" s="42" t="s">
-        <v>207</v>
       </c>
       <c r="X11" s="1">
         <v>12</v>
@@ -4604,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="2"/>
@@ -4618,48 +4615,48 @@
         <v>0</v>
       </c>
       <c r="J12" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="L12" s="42" t="s">
         <v>211</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>212</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="O12" s="42" t="s">
         <v>213</v>
-      </c>
-      <c r="O12" s="42" t="s">
-        <v>214</v>
       </c>
       <c r="P12" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q12" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="R12" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="R12" s="42" t="s">
+      <c r="S12" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="S12" s="42" t="s">
+      <c r="T12" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="T12" s="42" t="s">
+      <c r="U12" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="U12" s="42" t="s">
+      <c r="V12" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="V12" s="42" t="s">
+      <c r="W12" s="42" t="s">
         <v>220</v>
-      </c>
-      <c r="W12" s="42" t="s">
-        <v>221</v>
       </c>
       <c r="X12" s="1">
         <v>40</v>
@@ -4685,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="2"/>
@@ -4699,48 +4696,48 @@
         <v>0</v>
       </c>
       <c r="J13" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="K13" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="L13" s="42" t="s">
         <v>225</v>
-      </c>
-      <c r="L13" s="42" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N13" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="O13" s="42" t="s">
         <v>227</v>
-      </c>
-      <c r="O13" s="42" t="s">
-        <v>228</v>
       </c>
       <c r="P13" s="14">
         <f>SUM(Q13:W13)</f>
         <v>0</v>
       </c>
       <c r="Q13" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="R13" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="R13" s="42" t="s">
+      <c r="S13" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="S13" s="42" t="s">
+      <c r="T13" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="T13" s="42" t="s">
+      <c r="U13" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="U13" s="42" t="s">
+      <c r="V13" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="V13" s="42" t="s">
+      <c r="W13" s="42" t="s">
         <v>234</v>
-      </c>
-      <c r="W13" s="42" t="s">
-        <v>235</v>
       </c>
       <c r="X13" s="1">
         <v>3</v>
@@ -4757,7 +4754,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="11">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
@@ -4765,8 +4762,12 @@
         <f>SUM(I14,M14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>248</v>
+      </c>
       <c r="H14" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4775,36 +4776,66 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="J14" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>237</v>
+      </c>
       <c r="M14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
+      <c r="N14" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>239</v>
+      </c>
       <c r="P14" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="2"/>
+      <c r="Q14" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="R14" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="U14" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="V14" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="W14" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="X14" s="1">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" s="11">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
@@ -4813,10 +4844,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>248</v>
+        <v>458</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>249</v>
+        <v>459</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="2"/>
@@ -4827,77 +4858,77 @@
         <v>0</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>236</v>
+        <v>460</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>237</v>
+        <v>461</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>238</v>
+        <v>462</v>
       </c>
       <c r="M15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15" s="42" t="s">
-        <v>239</v>
+        <v>463</v>
       </c>
       <c r="O15" s="42" t="s">
-        <v>240</v>
+        <v>464</v>
       </c>
       <c r="P15" s="14">
-        <f t="shared" si="5"/>
+        <f>SUM(Q15:W15)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="42" t="s">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="R15" s="42" t="s">
-        <v>242</v>
+        <v>466</v>
       </c>
       <c r="S15" s="42" t="s">
-        <v>243</v>
+        <v>467</v>
       </c>
       <c r="T15" s="42" t="s">
-        <v>244</v>
+        <v>468</v>
       </c>
       <c r="U15" s="42" t="s">
-        <v>245</v>
+        <v>469</v>
       </c>
       <c r="V15" s="42" t="s">
-        <v>246</v>
+        <v>470</v>
       </c>
       <c r="W15" s="42" t="s">
-        <v>247</v>
+        <v>471</v>
       </c>
       <c r="X15" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="11">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="12">
-        <f>SUM(I16,M16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="2"/>
@@ -4908,77 +4939,77 @@
         <v>0</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="K16" s="42" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="M16" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16" s="42" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="O16" s="42" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="P16" s="14">
         <f>SUM(Q16:W16)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="42" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="S16" s="42" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="T16" s="42" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="U16" s="42" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="V16" s="42" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="W16" s="42" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="X16" s="1">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B17" s="11">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="12">
-        <f t="shared" si="1"/>
+        <f>SUM(I17,M17)</f>
         <v>0</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>487</v>
+        <v>360</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="2"/>
@@ -4989,77 +5020,77 @@
         <v>0</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>489</v>
+        <v>362</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>490</v>
+        <v>363</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>491</v>
+        <v>364</v>
       </c>
       <c r="M17" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="42" t="s">
-        <v>492</v>
+        <v>365</v>
       </c>
       <c r="O17" s="42" t="s">
-        <v>493</v>
+        <v>366</v>
       </c>
       <c r="P17" s="14">
         <f>SUM(Q17:W17)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="42" t="s">
-        <v>494</v>
+        <v>367</v>
       </c>
       <c r="R17" s="42" t="s">
-        <v>495</v>
+        <v>368</v>
       </c>
       <c r="S17" s="42" t="s">
-        <v>496</v>
+        <v>369</v>
       </c>
       <c r="T17" s="42" t="s">
-        <v>497</v>
+        <v>370</v>
       </c>
       <c r="U17" s="42" t="s">
-        <v>498</v>
+        <v>371</v>
       </c>
       <c r="V17" s="42" t="s">
-        <v>499</v>
+        <v>372</v>
       </c>
       <c r="W17" s="42" t="s">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="X17" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
       <c r="E18" s="12">
-        <f>SUM(I18,M18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>361</v>
+        <v>263</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="2"/>
@@ -5070,65 +5101,65 @@
         <v>0</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>363</v>
+        <v>265</v>
       </c>
       <c r="K18" s="42" t="s">
-        <v>364</v>
+        <v>266</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="M18" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N18" s="42" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="O18" s="42" t="s">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="P18" s="14">
-        <f>SUM(Q18:W18)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q18" s="42" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="R18" s="42" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="S18" s="42" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="T18" s="42" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="U18" s="42" t="s">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="V18" s="42" t="s">
-        <v>373</v>
+        <v>275</v>
       </c>
       <c r="W18" s="42" t="s">
-        <v>374</v>
+        <v>276</v>
       </c>
       <c r="X18" s="1">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" s="11">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -5137,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>264</v>
+        <v>514</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>265</v>
+        <v>515</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="2"/>
@@ -5151,65 +5182,65 @@
         <v>0</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>266</v>
+        <v>516</v>
       </c>
       <c r="K19" s="42" t="s">
-        <v>267</v>
+        <v>517</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>268</v>
+        <v>518</v>
       </c>
       <c r="M19" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="42" t="s">
-        <v>269</v>
+        <v>519</v>
       </c>
       <c r="O19" s="42" t="s">
-        <v>270</v>
+        <v>520</v>
       </c>
       <c r="P19" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19" s="42" t="s">
-        <v>271</v>
+        <v>521</v>
       </c>
       <c r="R19" s="42" t="s">
-        <v>272</v>
+        <v>522</v>
       </c>
       <c r="S19" s="42" t="s">
-        <v>273</v>
+        <v>523</v>
       </c>
       <c r="T19" s="42" t="s">
-        <v>274</v>
+        <v>524</v>
       </c>
       <c r="U19" s="42" t="s">
-        <v>275</v>
+        <v>525</v>
       </c>
       <c r="V19" s="42" t="s">
-        <v>276</v>
+        <v>526</v>
       </c>
       <c r="W19" s="42" t="s">
-        <v>277</v>
+        <v>527</v>
       </c>
       <c r="X19" s="1">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B20" s="11">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
@@ -5218,10 +5249,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>515</v>
+        <v>444</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>516</v>
+        <v>445</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="2"/>
@@ -5232,65 +5263,65 @@
         <v>0</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>517</v>
+        <v>446</v>
       </c>
       <c r="K20" s="42" t="s">
-        <v>518</v>
+        <v>447</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>519</v>
+        <v>448</v>
       </c>
       <c r="M20" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20" s="42" t="s">
-        <v>520</v>
+        <v>449</v>
       </c>
       <c r="O20" s="42" t="s">
-        <v>521</v>
+        <v>450</v>
       </c>
       <c r="P20" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q20" s="42" t="s">
-        <v>522</v>
+        <v>451</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>523</v>
+        <v>452</v>
       </c>
       <c r="S20" s="42" t="s">
-        <v>524</v>
+        <v>453</v>
       </c>
       <c r="T20" s="42" t="s">
-        <v>525</v>
+        <v>454</v>
       </c>
       <c r="U20" s="42" t="s">
-        <v>526</v>
+        <v>455</v>
       </c>
       <c r="V20" s="42" t="s">
-        <v>527</v>
+        <v>456</v>
       </c>
       <c r="W20" s="42" t="s">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="X20" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
@@ -5299,10 +5330,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>446</v>
+        <v>333</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="2"/>
@@ -5313,65 +5344,65 @@
         <v>0</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>447</v>
+        <v>334</v>
       </c>
       <c r="K21" s="42" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>449</v>
+        <v>336</v>
       </c>
       <c r="M21" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21" s="42" t="s">
-        <v>450</v>
+        <v>337</v>
       </c>
       <c r="O21" s="42" t="s">
-        <v>451</v>
+        <v>338</v>
       </c>
       <c r="P21" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q21" s="42" t="s">
-        <v>452</v>
+        <v>339</v>
       </c>
       <c r="R21" s="42" t="s">
-        <v>453</v>
+        <v>340</v>
       </c>
       <c r="S21" s="42" t="s">
-        <v>454</v>
+        <v>341</v>
       </c>
       <c r="T21" s="42" t="s">
-        <v>455</v>
+        <v>342</v>
       </c>
       <c r="U21" s="42" t="s">
-        <v>456</v>
+        <v>343</v>
       </c>
       <c r="V21" s="42" t="s">
-        <v>457</v>
+        <v>344</v>
       </c>
       <c r="W21" s="42" t="s">
-        <v>458</v>
+        <v>345</v>
       </c>
       <c r="X21" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B22" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -5380,10 +5411,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="2"/>
@@ -5394,65 +5425,65 @@
         <v>0</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="K22" s="42" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="L22" s="42" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="M22" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="42" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="O22" s="42" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="P22" s="14">
-        <f t="shared" si="5"/>
+        <f>SUM(Q22:W22)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="S22" s="42" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="T22" s="42" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="U22" s="42" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="V22" s="42" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="W22" s="42" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="X22" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="11">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -5461,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="2"/>
@@ -5475,77 +5506,77 @@
         <v>0</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="K23" s="42" t="s">
-        <v>322</v>
+        <v>391</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="4"/>
+        <f>SUM(N23,O23)</f>
         <v>0</v>
       </c>
       <c r="N23" s="42" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="O23" s="42" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="P23" s="14">
         <f>SUM(Q23:W23)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="42" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="R23" s="42" t="s">
-        <v>327</v>
+        <v>396</v>
       </c>
       <c r="S23" s="42" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="T23" s="42" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="U23" s="42" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="V23" s="42" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="W23" s="42" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="X23" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="11">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="12">
-        <f t="shared" si="1"/>
+        <f>SUM(I24,M24)</f>
         <v>0</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>390</v>
+        <v>501</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="2"/>
@@ -5556,77 +5587,77 @@
         <v>0</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>391</v>
+        <v>502</v>
       </c>
       <c r="K24" s="42" t="s">
-        <v>392</v>
+        <v>503</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>393</v>
+        <v>504</v>
       </c>
       <c r="M24" s="12">
-        <f>SUM(N24,O24)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N24" s="42" t="s">
-        <v>394</v>
+        <v>505</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="P24" s="14">
         <f>SUM(Q24:W24)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="42" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>397</v>
+        <v>508</v>
       </c>
       <c r="S24" s="42" t="s">
-        <v>398</v>
+        <v>509</v>
       </c>
       <c r="T24" s="42" t="s">
-        <v>399</v>
+        <v>510</v>
       </c>
       <c r="U24" s="42" t="s">
-        <v>400</v>
+        <v>511</v>
       </c>
       <c r="V24" s="42" t="s">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="W24" s="42" t="s">
-        <v>402</v>
+        <v>513</v>
       </c>
       <c r="X24" s="1">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B25" s="11">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
       <c r="E25" s="12">
-        <f>SUM(I25,M25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>501</v>
+        <v>374</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>502</v>
+        <v>375</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="2"/>
@@ -5637,65 +5668,65 @@
         <v>0</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>503</v>
+        <v>376</v>
       </c>
       <c r="K25" s="42" t="s">
-        <v>504</v>
+        <v>377</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>505</v>
+        <v>378</v>
       </c>
       <c r="M25" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N25" s="42" t="s">
-        <v>506</v>
+        <v>379</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>507</v>
+        <v>380</v>
       </c>
       <c r="P25" s="14">
-        <f>SUM(Q25:W25)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>508</v>
+        <v>381</v>
       </c>
       <c r="R25" s="42" t="s">
-        <v>509</v>
+        <v>382</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>510</v>
+        <v>383</v>
       </c>
       <c r="T25" s="42" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="U25" s="42" t="s">
-        <v>512</v>
+        <v>385</v>
       </c>
       <c r="V25" s="42" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
       <c r="W25" s="42" t="s">
-        <v>514</v>
+        <v>387</v>
       </c>
       <c r="X25" s="1">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B26" s="11">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -5704,71 +5735,71 @@
         <v>0</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>376</v>
+        <v>557</v>
       </c>
       <c r="H26" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H26" si="6">E26/B26</f>
         <v>0</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I26" si="7">SUM(J26:L26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>377</v>
+        <v>558</v>
       </c>
       <c r="K26" s="42" t="s">
-        <v>378</v>
+        <v>559</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>379</v>
+        <v>560</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M26" si="8">SUM(N26,O26)</f>
         <v>0</v>
       </c>
       <c r="N26" s="42" t="s">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="O26" s="42" t="s">
-        <v>381</v>
+        <v>562</v>
       </c>
       <c r="P26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P26" si="9">SUM(Q26:W26)</f>
         <v>0</v>
       </c>
       <c r="Q26" s="42" t="s">
-        <v>382</v>
+        <v>563</v>
       </c>
       <c r="R26" s="42" t="s">
-        <v>383</v>
+        <v>564</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>384</v>
+        <v>565</v>
       </c>
       <c r="T26" s="42" t="s">
-        <v>385</v>
+        <v>566</v>
       </c>
       <c r="U26" s="42" t="s">
-        <v>386</v>
+        <v>567</v>
       </c>
       <c r="V26" s="42" t="s">
-        <v>387</v>
+        <v>568</v>
       </c>
       <c r="W26" s="42" t="s">
-        <v>388</v>
+        <v>569</v>
       </c>
       <c r="X26" s="1">
         <v>37</v>
       </c>
       <c r="Y26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z26" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
@@ -5776,7 +5807,7 @@
         <v>88</v>
       </c>
       <c r="B27" s="11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
@@ -5785,91 +5816,91 @@
         <v>0</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>557</v>
+        <v>416</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>558</v>
+        <v>417</v>
       </c>
       <c r="H27" s="13">
-        <f t="shared" ref="H27" si="6">E27/B27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" ref="I27" si="7">SUM(J27:L27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="42" t="s">
-        <v>559</v>
+        <v>418</v>
       </c>
       <c r="K27" s="42" t="s">
-        <v>560</v>
+        <v>419</v>
       </c>
       <c r="L27" s="42" t="s">
-        <v>561</v>
+        <v>420</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" ref="M27" si="8">SUM(N27,O27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N27" s="42" t="s">
-        <v>562</v>
+        <v>421</v>
       </c>
       <c r="O27" s="42" t="s">
-        <v>563</v>
+        <v>422</v>
       </c>
       <c r="P27" s="14">
-        <f t="shared" ref="P27" si="9">SUM(Q27:W27)</f>
+        <f>SUM(Q27:W27)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="42" t="s">
-        <v>564</v>
+        <v>423</v>
       </c>
       <c r="R27" s="42" t="s">
-        <v>565</v>
+        <v>424</v>
       </c>
       <c r="S27" s="42" t="s">
-        <v>566</v>
+        <v>425</v>
       </c>
       <c r="T27" s="42" t="s">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="U27" s="42" t="s">
-        <v>568</v>
+        <v>427</v>
       </c>
       <c r="V27" s="42" t="s">
-        <v>569</v>
+        <v>428</v>
       </c>
       <c r="W27" s="42" t="s">
-        <v>570</v>
+        <v>429</v>
       </c>
       <c r="X27" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="10"/>
       <c r="E28" s="12">
-        <f t="shared" si="1"/>
+        <f>SUM(I28,M28)</f>
         <v>0</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="2"/>
@@ -5880,77 +5911,77 @@
         <v>0</v>
       </c>
       <c r="J28" s="42" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="K28" s="42" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="L28" s="42" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="M28" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N28" s="42" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="P28" s="14">
-        <f>SUM(Q28:W28)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q28" s="42" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="R28" s="42" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="S28" s="42" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="T28" s="42" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="U28" s="42" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="V28" s="42" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="W28" s="42" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="X28" s="1">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B29" s="11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="10"/>
       <c r="E29" s="12">
-        <f>SUM(I29,M29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>431</v>
+        <v>305</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>432</v>
+        <v>306</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="2"/>
@@ -5961,65 +5992,65 @@
         <v>0</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>433</v>
+        <v>307</v>
       </c>
       <c r="K29" s="42" t="s">
-        <v>434</v>
+        <v>308</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>435</v>
+        <v>309</v>
       </c>
       <c r="M29" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N29" s="42" t="s">
-        <v>436</v>
+        <v>310</v>
       </c>
       <c r="O29" s="42" t="s">
-        <v>437</v>
+        <v>311</v>
       </c>
       <c r="P29" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q29" s="42" t="s">
-        <v>438</v>
+        <v>312</v>
       </c>
       <c r="R29" s="42" t="s">
-        <v>439</v>
+        <v>313</v>
       </c>
       <c r="S29" s="42" t="s">
-        <v>440</v>
+        <v>314</v>
       </c>
       <c r="T29" s="42" t="s">
-        <v>441</v>
+        <v>315</v>
       </c>
       <c r="U29" s="42" t="s">
-        <v>442</v>
+        <v>316</v>
       </c>
       <c r="V29" s="42" t="s">
-        <v>443</v>
+        <v>317</v>
       </c>
       <c r="W29" s="42" t="s">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="X29" s="1">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B30" s="11">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="10"/>
@@ -6028,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="2"/>
@@ -6042,77 +6073,77 @@
         <v>0</v>
       </c>
       <c r="J30" s="42" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="K30" s="42" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="L30" s="42" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="M30" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N30" s="42" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="O30" s="42" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="P30" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q30" s="42" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="R30" s="42" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="S30" s="42" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="T30" s="42" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="U30" s="42" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="V30" s="42" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="W30" s="42" t="s">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="X30" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="11">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="10"/>
       <c r="E31" s="12">
-        <f t="shared" si="1"/>
+        <f>SUM(I31,M31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="2"/>
@@ -6123,77 +6154,77 @@
         <v>0</v>
       </c>
       <c r="J31" s="42" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="K31" s="42" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="L31" s="42" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="4"/>
+        <f>SUM(N31,O31)</f>
         <v>0</v>
       </c>
       <c r="N31" s="42" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="O31" s="42" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="P31" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31" s="42" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="R31" s="42" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="S31" s="42" t="s">
-        <v>356</v>
+        <v>411</v>
       </c>
       <c r="T31" s="42" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="U31" s="42" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="V31" s="42" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="W31" s="42" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="X31" s="1">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="11">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="10"/>
       <c r="E32" s="12">
-        <f>SUM(I32,M32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>403</v>
+        <v>472</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="2"/>
@@ -6204,77 +6235,77 @@
         <v>0</v>
       </c>
       <c r="J32" s="42" t="s">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>406</v>
+        <v>475</v>
       </c>
       <c r="L32" s="42" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="M32" s="12">
-        <f>SUM(N32,O32)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N32" s="42" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="O32" s="42" t="s">
-        <v>409</v>
+        <v>478</v>
       </c>
       <c r="P32" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q32" s="42" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="R32" s="42" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="S32" s="42" t="s">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="T32" s="42" t="s">
-        <v>413</v>
+        <v>482</v>
       </c>
       <c r="U32" s="42" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="V32" s="42" t="s">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="W32" s="42" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="X32" s="1">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="11">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
       <c r="E33" s="12">
-        <f t="shared" si="1"/>
+        <f>SUM(I33,M33)</f>
         <v>0</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>473</v>
+        <v>572</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>474</v>
+        <v>573</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" si="2"/>
@@ -6285,77 +6316,77 @@
         <v>0</v>
       </c>
       <c r="J33" s="42" t="s">
-        <v>475</v>
+        <v>574</v>
       </c>
       <c r="K33" s="42" t="s">
-        <v>476</v>
+        <v>575</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>477</v>
+        <v>576</v>
       </c>
       <c r="M33" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N33" s="42" t="s">
-        <v>478</v>
+        <v>577</v>
       </c>
       <c r="O33" s="42" t="s">
-        <v>479</v>
+        <v>578</v>
       </c>
       <c r="P33" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q33" s="42" t="s">
-        <v>480</v>
+        <v>579</v>
       </c>
       <c r="R33" s="42" t="s">
-        <v>481</v>
+        <v>580</v>
       </c>
       <c r="S33" s="42" t="s">
-        <v>482</v>
+        <v>581</v>
       </c>
       <c r="T33" s="42" t="s">
-        <v>483</v>
+        <v>582</v>
       </c>
       <c r="U33" s="42" t="s">
-        <v>484</v>
+        <v>583</v>
       </c>
       <c r="V33" s="42" t="s">
-        <v>485</v>
+        <v>584</v>
       </c>
       <c r="W33" s="42" t="s">
-        <v>486</v>
+        <v>585</v>
       </c>
       <c r="X33" s="1">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B34" s="11">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="10"/>
       <c r="E34" s="12">
-        <f>SUM(I34,M34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>573</v>
+        <v>277</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>574</v>
+        <v>278</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="2"/>
@@ -6366,65 +6397,65 @@
         <v>0</v>
       </c>
       <c r="J34" s="42" t="s">
-        <v>575</v>
+        <v>279</v>
       </c>
       <c r="K34" s="42" t="s">
-        <v>576</v>
+        <v>280</v>
       </c>
       <c r="L34" s="42" t="s">
-        <v>577</v>
+        <v>281</v>
       </c>
       <c r="M34" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N34" s="42" t="s">
-        <v>578</v>
+        <v>282</v>
       </c>
       <c r="O34" s="42" t="s">
-        <v>579</v>
+        <v>283</v>
       </c>
       <c r="P34" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q34" s="42" t="s">
-        <v>580</v>
+        <v>284</v>
       </c>
       <c r="R34" s="42" t="s">
-        <v>581</v>
+        <v>285</v>
       </c>
       <c r="S34" s="42" t="s">
-        <v>582</v>
+        <v>286</v>
       </c>
       <c r="T34" s="42" t="s">
-        <v>583</v>
+        <v>287</v>
       </c>
       <c r="U34" s="42" t="s">
-        <v>584</v>
+        <v>288</v>
       </c>
       <c r="V34" s="42" t="s">
-        <v>585</v>
+        <v>289</v>
       </c>
       <c r="W34" s="42" t="s">
-        <v>586</v>
+        <v>290</v>
       </c>
       <c r="X34" s="1">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B35" s="11">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
@@ -6433,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="2"/>
@@ -6447,65 +6478,65 @@
         <v>0</v>
       </c>
       <c r="J35" s="42" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="L35" s="42" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="M35" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N35" s="42" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="O35" s="42" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="P35" s="14">
-        <f t="shared" si="5"/>
+        <f>SUM(Q35:W35)</f>
         <v>0</v>
       </c>
       <c r="Q35" s="42" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="R35" s="42" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="S35" s="42" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="T35" s="42" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="U35" s="42" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="V35" s="42" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="W35" s="42" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="X35" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B36" s="11">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="10"/>
@@ -6514,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>293</v>
+        <v>543</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="2"/>
@@ -6528,77 +6559,77 @@
         <v>0</v>
       </c>
       <c r="J36" s="42" t="s">
-        <v>294</v>
+        <v>544</v>
       </c>
       <c r="K36" s="42" t="s">
-        <v>295</v>
+        <v>545</v>
       </c>
       <c r="L36" s="42" t="s">
-        <v>296</v>
+        <v>546</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="4"/>
+        <f>SUM(N36,O36)</f>
         <v>0</v>
       </c>
       <c r="N36" s="42" t="s">
-        <v>297</v>
+        <v>547</v>
       </c>
       <c r="O36" s="42" t="s">
-        <v>298</v>
+        <v>548</v>
       </c>
       <c r="P36" s="14">
         <f>SUM(Q36:W36)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="42" t="s">
-        <v>299</v>
+        <v>549</v>
       </c>
       <c r="R36" s="42" t="s">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="S36" s="42" t="s">
-        <v>301</v>
+        <v>551</v>
       </c>
       <c r="T36" s="42" t="s">
-        <v>302</v>
+        <v>552</v>
       </c>
       <c r="U36" s="42" t="s">
-        <v>303</v>
+        <v>553</v>
       </c>
       <c r="V36" s="42" t="s">
-        <v>304</v>
+        <v>554</v>
       </c>
       <c r="W36" s="42" t="s">
-        <v>305</v>
+        <v>555</v>
       </c>
       <c r="X36" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B37" s="11">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="10"/>
       <c r="E37" s="12">
-        <f t="shared" si="1"/>
+        <f>SUM(I37,M37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="2"/>
@@ -6609,77 +6640,77 @@
         <v>0</v>
       </c>
       <c r="J37" s="42" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="K37" s="42" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="L37" s="42" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="M37" s="12">
-        <f>SUM(N37,O37)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N37" s="42" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="O37" s="42" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="P37" s="14">
-        <f>SUM(Q37:W37)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="R37" s="42" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="S37" s="42" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="T37" s="42" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="U37" s="42" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="V37" s="42" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="W37" s="42" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="X37" s="1">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B38" s="11">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="10"/>
       <c r="E38" s="12">
-        <f>SUM(I38,M38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>529</v>
+        <v>252</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="2"/>
@@ -6690,265 +6721,259 @@
         <v>0</v>
       </c>
       <c r="J38" s="42" t="s">
-        <v>531</v>
+        <v>249</v>
       </c>
       <c r="K38" s="42" t="s">
-        <v>532</v>
+        <v>250</v>
       </c>
       <c r="L38" s="42" t="s">
-        <v>533</v>
+        <v>251</v>
       </c>
       <c r="M38" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N38" s="42" t="s">
-        <v>534</v>
+        <v>254</v>
       </c>
       <c r="O38" s="42" t="s">
-        <v>535</v>
+        <v>255</v>
       </c>
       <c r="P38" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q38" s="42" t="s">
-        <v>536</v>
+        <v>256</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>537</v>
+        <v>257</v>
       </c>
       <c r="S38" s="42" t="s">
-        <v>538</v>
+        <v>258</v>
       </c>
       <c r="T38" s="42" t="s">
-        <v>539</v>
+        <v>259</v>
       </c>
       <c r="U38" s="42" t="s">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="V38" s="42" t="s">
-        <v>541</v>
+        <v>261</v>
       </c>
       <c r="W38" s="42" t="s">
-        <v>542</v>
+        <v>262</v>
       </c>
       <c r="X38" s="1">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="11">
-        <v>63</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="H39" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="L39" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="M39" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="O39" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="P39" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="R39" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="S39" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="T39" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="U39" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="V39" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="W39" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="X39" s="1">
-        <v>53</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z39" s="2" t="s">
+    <row r="39" spans="1:26" s="22" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A39" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="18">
+        <f>SUM(B7:B38)</f>
+        <v>1706</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="12">
+        <f>E39+P39</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="19">
+        <f>SUM(E7:E38)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="19">
+        <f>SUM(F7:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="19">
+        <f>SUM(G7:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="19">
+        <f>SUM(I7:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="19">
+        <f>SUM(J7:J38)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="19">
+        <f>SUM(K7:K38)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="19">
+        <f>SUM(L7:L38)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="19">
+        <f>SUM(M7:M38)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="19">
+        <f>SUM(N7:N38)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="19">
+        <f>SUM(O7:O38)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="19">
+        <f>SUM(P7:P38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="19">
+        <f>SUM(Q7:Q38)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="19">
+        <f>SUM(R7:R38)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="19">
+        <f>SUM(S7:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="19">
+        <f>SUM(T7:T38)</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="19">
+        <f>SUM(U7:U38)</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="19">
+        <f>SUM(V7:V38)</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="19">
+        <f>SUM(W7:W38)</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="21"/>
     </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="18">
-        <f>SUM(B7:B39)</f>
-        <v>1767</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="12">
-        <f>E40+P40</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="19">
-        <f>SUM(E7:E39)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="19">
-        <f>SUM(F7:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="19">
-        <f>SUM(G7:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="19">
-        <f t="shared" ref="I40:W40" si="10">SUM(I7:I39)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="1" t="s">
+    <row r="40" spans="1:26" s="16" customFormat="1" ht="26.25" hidden="1" customHeight="1">
+      <c r="A40" s="23" t="s">
         <v>120</v>
       </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="14">
+        <f>SUM(Q40:W40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
-      <c r="Z40" s="21"/>
+      <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" s="16" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B41" s="11"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="12">
+        <f>SUM(I41,M41)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="24" t="e">
+        <f t="shared" ref="H41:H46" si="10">E41/B41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="14">
+        <f>SUM(J41:L41)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12">
+        <f>SUM(N41,O41)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+      <c r="O41" s="15">
+        <v>0</v>
+      </c>
       <c r="P41" s="14">
         <f>SUM(Q41:W41)</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="1"/>
+      <c r="Q41" s="15">
+        <v>0</v>
+      </c>
+      <c r="R41" s="15">
+        <v>0</v>
+      </c>
+      <c r="S41" s="15">
+        <v>0</v>
+      </c>
+      <c r="T41" s="15">
+        <v>0</v>
+      </c>
+      <c r="U41" s="15">
+        <v>0</v>
+      </c>
+      <c r="V41" s="15">
+        <v>0</v>
+      </c>
+      <c r="W41" s="15">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>23</v>
+      </c>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
     </row>
@@ -6970,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="24" t="e">
-        <f t="shared" ref="H42:H47" si="11">E42/B42</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I42" s="14">
@@ -7022,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
@@ -7045,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="24" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="14">
@@ -7097,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
@@ -7120,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="24" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I44" s="14">
@@ -7172,546 +7197,519 @@
         <v>0</v>
       </c>
       <c r="X44" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" s="16" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:26" s="22" customFormat="1" ht="26.25" hidden="1" customHeight="1">
+      <c r="A45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="18">
+        <f>SUM(B41:B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26">
+        <f>E45+P45</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="27">
+        <f t="shared" ref="E45:W45" si="11">SUM(E41:E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="26">
+        <f>SUM(V41:V44)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="12">
-        <f>SUM(I45,M45)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="12">
-        <v>0</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0</v>
-      </c>
-      <c r="H45" s="24" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="14">
-        <f>SUM(J45:L45)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-      <c r="K45" s="15">
-        <v>0</v>
-      </c>
-      <c r="L45" s="15">
-        <v>0</v>
-      </c>
-      <c r="M45" s="12">
-        <f>SUM(N45,O45)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="15">
-        <v>0</v>
-      </c>
-      <c r="O45" s="15">
-        <v>0</v>
-      </c>
-      <c r="P45" s="14">
-        <f>SUM(Q45:W45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="15">
-        <v>0</v>
-      </c>
-      <c r="R45" s="15">
-        <v>0</v>
-      </c>
-      <c r="S45" s="15">
-        <v>0</v>
-      </c>
-      <c r="T45" s="15">
-        <v>0</v>
-      </c>
-      <c r="U45" s="15">
-        <v>0</v>
-      </c>
-      <c r="V45" s="15">
-        <v>0</v>
-      </c>
-      <c r="W45" s="15">
-        <v>0</v>
-      </c>
-      <c r="X45" s="1">
-        <v>26</v>
-      </c>
       <c r="Y45" s="1"/>
-      <c r="Z45" s="2"/>
+      <c r="Z45" s="21"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A46" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="18">
-        <f>SUM(B42:B45)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26">
-        <f>E46+P46</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="27">
-        <f t="shared" ref="E46:W46" si="12">SUM(E42:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="20" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="28">
+    <row r="46" spans="1:26" s="22" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A46" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="30">
+        <f>SUM(B39,B45)</f>
+        <v>1706</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="D46" s="29">
+        <f>SUM(D45,D39,P47)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="31">
+        <f t="shared" ref="E46:W46" si="12">SUM(E39,E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J46" s="26">
+      <c r="J46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K46" s="26">
+      <c r="K46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L46" s="26">
+      <c r="L46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M46" s="28">
+      <c r="M46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N46" s="26">
+      <c r="N46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O46" s="26">
+      <c r="O46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P46" s="28">
+      <c r="P46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="26">
+      <c r="Q46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R46" s="26">
+      <c r="R46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S46" s="26">
+      <c r="S46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T46" s="26">
+      <c r="T46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U46" s="26">
+      <c r="U46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V46" s="26">
-        <f>SUM(V42:V45)</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="26">
+      <c r="V46" s="31">
+        <f>SUM(V39,V45)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y46" s="1"/>
       <c r="Z46" s="21"/>
     </row>
     <row r="47" spans="1:26" s="22" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A47" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="30">
-        <f>SUM(B40,B46)</f>
-        <v>1767</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>572</v>
-      </c>
-      <c r="D47" s="29">
-        <f>SUM(D46,D40,P48)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="31">
-        <f t="shared" ref="E47:W47" si="13">SUM(E40,E46)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="31">
-        <f>SUM(V40,V46)</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="A47" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="26">
+        <f>SUM(Q47:W47)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
       <c r="X47" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y47" s="1"/>
       <c r="Z47" s="21"/>
     </row>
-    <row r="48" spans="1:26" s="22" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A48" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="26">
-        <f>SUM(Q48:W48)</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="1" t="s">
+    <row r="48" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A48" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="21"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="34">
+        <f>SUM(P46:P47)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="34">
+        <f t="shared" ref="Q48:W48" si="13">SUM(Q46:Q47)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="34">
+        <f>SUM(V46:V47)</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A49" s="34" t="s">
+    <row r="49" spans="1:26" s="16" customFormat="1" ht="33" customHeight="1">
+      <c r="A49" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="34">
-        <f>SUM(P47:P48)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="34">
-        <f t="shared" ref="Q49:W49" si="14">SUM(Q47:Q48)</f>
-        <v>0</v>
-      </c>
-      <c r="R49" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="34">
-        <f>SUM(V47:V48)</f>
-        <v>0</v>
-      </c>
-      <c r="W49" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" s="16" customFormat="1" ht="33" customHeight="1">
-      <c r="A50" s="74" t="s">
+    <row r="50" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A50" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="75"/>
-      <c r="S50" s="75"/>
-      <c r="T50" s="75"/>
-      <c r="U50" s="75"/>
-      <c r="V50" s="75"/>
-      <c r="W50" s="76"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="12">
+        <f>E50+P50</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <f>I50+M50</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12" t="e">
+        <f>E50/B50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="12">
+        <f>SUM(J50:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="12">
+        <f>SUM(N50:O50)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="12">
+        <f>SUM(Q50:W50)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A51" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="15"/>
+      <c r="A51" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="18">
+        <f>B50</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="12">
+        <f>C50</f>
+        <v>0</v>
+      </c>
       <c r="D51" s="12">
-        <f>E51+P51</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="12">
-        <f>I51+M51</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+        <f>D50</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="19">
+        <f t="shared" ref="E51:W51" si="14">E50</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="12" t="e">
         <f>E51/B51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="12">
-        <f>SUM(J51:L51)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="12">
-        <f>SUM(N51:O51)</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="12">
-        <f>SUM(Q51:W51)</f>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
+      <c r="I51" s="36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="12">
+        <f>V50</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="18">
-        <f>B51</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="12">
-        <f>C51</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="12">
-        <f>D51</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="19">
-        <f t="shared" ref="E52:W52" si="15">E51</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="12" t="e">
-        <f>E52/B52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V52" s="12">
-        <f>V51</f>
-        <v>0</v>
-      </c>
-      <c r="W52" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+    <row r="52" spans="1:26" s="16" customFormat="1" ht="33" customHeight="1">
+      <c r="A52" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="46"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" s="16" customFormat="1" ht="33" customHeight="1">
-      <c r="A53" s="74" t="s">
+    <row r="53" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A53" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="75"/>
-      <c r="T53" s="75"/>
-      <c r="U53" s="75"/>
-      <c r="V53" s="75"/>
-      <c r="W53" s="76"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="12">
+        <f>E53+P53</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <f>I53+M53</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12" t="e">
+        <f>E53/B53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="12">
+        <f>SUM(J53:L53)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="12">
+        <f>SUM(N53:O53)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="12">
+        <f>SUM(Q53:W53)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="2"/>
@@ -7765,320 +7763,273 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A55" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="15"/>
+      <c r="A55" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="18">
+        <f>SUM(B53:B54)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="12">
+        <f>SUM(C53:C54)</f>
+        <v>0</v>
+      </c>
       <c r="D55" s="12">
-        <f>E55+P55</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="12">
-        <f>I55+M55</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+        <f>SUM(D53:D54)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="19">
+        <f>SUM(E53:E54)</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="12" t="e">
         <f>E55/B55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I55" s="12">
-        <f>SUM(J55:L55)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="12">
-        <f>SUM(N55:O55)</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="12">
-        <f>SUM(Q55:W55)</f>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
+      <c r="I55" s="36">
+        <f t="shared" ref="I55:W55" si="15">SUM(I53:I54)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="12">
+        <f>SUM(V53:V54)</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" s="16" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A56" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="18">
-        <f>SUM(B54:B55)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="12">
-        <f>SUM(C54:C55)</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="12">
-        <f>SUM(D54:D55)</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="19">
-        <f>SUM(E54:E55)</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="12" t="e">
+    <row r="56" spans="1:26" s="16" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A56" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="38">
+        <f>SUM(B46,B51,B55)</f>
+        <v>1706</v>
+      </c>
+      <c r="C56" s="38">
+        <f>SUM(C46,C51,C55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="38">
+        <f>SUM(D46,D51,D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="38">
+        <f>SUM(E46,E51,E55)</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38">
         <f>E56/B56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="36">
-        <f t="shared" ref="I56:W56" si="16">SUM(I54:I55)</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="38">
+        <f t="shared" ref="I56:O56" si="16">SUM(I46,I51,I55)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M56" s="36">
+      <c r="M56" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N56" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O56" s="12">
+      <c r="O56" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P56" s="36">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="12">
-        <f>SUM(V54:V55)</f>
-        <v>0</v>
-      </c>
-      <c r="W56" s="12">
-        <f t="shared" si="16"/>
+      <c r="P56" s="38">
+        <f t="shared" ref="P56:W56" si="17">SUM(P48,P51,P55)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="38">
+        <f>SUM(V48,V51,V55)</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="38">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" s="16" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A57" s="37" t="s">
+    <row r="57" spans="1:26" s="39" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A57" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="38">
-        <f>SUM(B47,B52,B56)</f>
-        <v>1767</v>
-      </c>
-      <c r="C57" s="38">
-        <f>SUM(C47,C52,C56)</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="38">
-        <f>SUM(D47,D52,D56)</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="38">
-        <f>SUM(E47,E52,E56)</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38">
-        <f>E57/B57</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="38">
-        <f t="shared" ref="I57:O57" si="17">SUM(I47,I52,I56)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="38">
-        <f t="shared" ref="P57:W57" si="18">SUM(P49,P52,P56)</f>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="38">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="38">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="38">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="38">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="38">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="38">
-        <f>SUM(V49,V52,V56)</f>
-        <v>0</v>
-      </c>
-      <c r="W57" s="38">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="50"/>
+      <c r="W57" s="50"/>
+      <c r="X57" s="50"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" s="39" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A58" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="80"/>
-      <c r="S58" s="80"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-      <c r="Z58" s="2"/>
+    <row r="58" spans="1:26" ht="26.25" customHeight="1">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
     </row>
-    <row r="59" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A59" s="73"/>
-      <c r="B59" s="73"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="73"/>
-      <c r="W59" s="73"/>
-    </row>
-    <row r="60" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
+    <row r="59" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A59:W59"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A50:W50"/>
-    <mergeCell ref="A53:W53"/>
-    <mergeCell ref="A58:X58"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="X3:X5"/>
     <mergeCell ref="Y3:Y5"/>
     <mergeCell ref="E4:E5"/>
@@ -8094,13 +8045,12 @@
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:W3"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:W2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A58:W58"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="A49:W49"/>
+    <mergeCell ref="A52:W52"/>
+    <mergeCell ref="A57:X57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
